--- a/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
+++ b/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ARES-Africa\KUL ( C938088 - JRC PTT 2019 LVP 2684)\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\Inputs\ARES_Africa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1364787-5CBB-422D-B463-44303C8C8A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D5CB4-54DF-4CF7-BB14-718CE9BA82F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3016D1E9-EAE0-419D-90BD-C7C086BC9CE8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="11055" xr2:uid="{3016D1E9-EAE0-419D-90BD-C7C086BC9CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
         <v>1413</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>173</v>

--- a/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
+++ b/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\Inputs\ARES_Africa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D5CB4-54DF-4CF7-BB14-718CE9BA82F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AF9591-A745-4EE1-8768-93B19F0C3C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18900" windowHeight="11055" xr2:uid="{3016D1E9-EAE0-419D-90BD-C7C086BC9CE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3016D1E9-EAE0-419D-90BD-C7C086BC9CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>165</v>
@@ -687,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>51</v>
@@ -791,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>14970</v>
@@ -1057,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <v>431</v>

--- a/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
+++ b/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\Inputs\ARES_Africa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AF9591-A745-4EE1-8768-93B19F0C3C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5C668-BDAF-4A2C-AFCF-B80AF02F1E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3016D1E9-EAE0-419D-90BD-C7C086BC9CE8}"/>
+    <workbookView xWindow="3390" yWindow="3195" windowWidth="18900" windowHeight="11055" xr2:uid="{3016D1E9-EAE0-419D-90BD-C7C086BC9CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
         <v>165</v>
       </c>
       <c r="G2">
-        <v>452</v>
+        <v>367.15391229578677</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>18.056749785038694</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>674</v>
+        <v>732.58813413585551</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>12.037833190025795</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>51</v>
       </c>
       <c r="G6">
-        <v>81</v>
+        <v>91.143594153052447</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>146</v>
       </c>
       <c r="G7">
-        <v>471</v>
+        <v>379.19174548581253</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -771,7 +771,7 @@
         <v>65170</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>27.515047291487534</v>
       </c>
       <c r="I9">
         <v>375</v>
@@ -797,7 +797,7 @@
         <v>14970</v>
       </c>
       <c r="G10">
-        <v>1097</v>
+        <v>1177.9879621668099</v>
       </c>
       <c r="I10">
         <v>438</v>
@@ -849,7 +849,7 @@
         <v>48</v>
       </c>
       <c r="G12">
-        <v>1413</v>
+        <v>773.86070507308682</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>96</v>
       </c>
       <c r="G13">
-        <v>103</v>
+        <v>68.787618228718827</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>34</v>
       </c>
       <c r="G14">
-        <v>47</v>
+        <v>0.85984522785898543</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>317</v>
       </c>
       <c r="G15">
-        <v>232</v>
+        <v>295.78675838349096</v>
       </c>
       <c r="H15">
         <v>282</v>
@@ -985,7 +985,7 @@
         <v>3216</v>
       </c>
       <c r="G17">
-        <v>302</v>
+        <v>216.68099742046431</v>
       </c>
       <c r="I17">
         <v>215</v>
@@ -1011,7 +1011,7 @@
         <v>143</v>
       </c>
       <c r="G18">
-        <v>22</v>
+        <v>10.318142734307825</v>
       </c>
       <c r="I18">
         <v>12</v>
@@ -1037,7 +1037,7 @@
         <v>48</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>15.477214101461737</v>
       </c>
       <c r="I19">
         <v>26</v>
@@ -1063,7 +1063,7 @@
         <v>431</v>
       </c>
       <c r="G20">
-        <v>832</v>
+        <v>542.5623387790198</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>34</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>2.1496130696474633</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>1490</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>4.2992261392949267</v>
       </c>
       <c r="I24">
         <v>40</v>
@@ -1187,7 +1187,7 @@
         <v>394</v>
       </c>
       <c r="G25">
-        <v>151</v>
+        <v>220.12037833190027</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>53</v>
       </c>
       <c r="G26">
-        <v>206</v>
+        <v>127.25709372312984</v>
       </c>
       <c r="I26">
         <v>2</v>

--- a/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
+++ b/Inputs/ARES_Africa/Annual_Generation_Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\Inputs\ARES_Africa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD998407-80B6-4796-83D8-1E8AB71B0A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDB22F-5080-465F-BA00-C420372C8334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3016D1E9-EAE0-419D-90BD-C7C086BC9CE8}"/>
   </bookViews>
@@ -838,7 +838,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +898,9 @@
       <c r="E2" t="s">
         <v>113</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <v>310</v>
       </c>
@@ -928,7 +931,7 @@
         <v>113</v>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="G3">
         <v>6350</v>
@@ -953,6 +956,9 @@
       <c r="E4" t="s">
         <v>113</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>130</v>
       </c>
@@ -976,6 +982,9 @@
       <c r="E5" t="s">
         <v>113</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>113</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -1026,7 +1035,7 @@
         <v>113</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -1051,6 +1060,9 @@
       <c r="E8" t="s">
         <v>113</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8">
         <v>4600</v>
       </c>
@@ -1074,8 +1086,11 @@
       <c r="E9" t="s">
         <v>113</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="G9">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1094,6 +1109,9 @@
       <c r="E10" t="s">
         <v>113</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1117,6 +1135,9 @@
       <c r="E11" t="s">
         <v>113</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <v>1060</v>
       </c>
@@ -1140,6 +1161,9 @@
       <c r="E12" t="s">
         <v>113</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12">
         <v>2620</v>
       </c>
@@ -1164,7 +1188,7 @@
         <v>113</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>8630</v>
@@ -1189,6 +1213,9 @@
       <c r="E14" t="s">
         <v>113</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>113</v>
       </c>
       <c r="F15">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="G15">
         <v>13410</v>
@@ -1241,8 +1268,11 @@
       <c r="E16" t="s">
         <v>113</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16">
-        <v>120</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1261,6 +1291,9 @@
       <c r="E17" t="s">
         <v>113</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -1288,13 +1321,13 @@
         <v>113</v>
       </c>
       <c r="F18">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="G18">
         <v>8370</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -1320,7 +1353,7 @@
         <v>113</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>1540</v>
@@ -1345,6 +1378,9 @@
       <c r="E20" t="s">
         <v>113</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -1369,7 +1405,7 @@
         <v>113</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>8880</v>
@@ -1394,6 +1430,9 @@
       <c r="E22" t="s">
         <v>113</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22">
         <v>1360</v>
       </c>
@@ -1417,6 +1456,9 @@
       <c r="E23" t="s">
         <v>113</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -1441,7 +1483,7 @@
         <v>113</v>
       </c>
       <c r="F24">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="G24">
         <v>2870</v>
@@ -1472,6 +1514,9 @@
       <c r="E25" t="s">
         <v>113</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="G25">
         <v>490</v>
       </c>
@@ -1492,6 +1537,9 @@
       <c r="E26" t="s">
         <v>113</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
       <c r="G26">
         <v>490</v>
       </c>
@@ -1515,6 +1563,9 @@
       <c r="E27" t="s">
         <v>113</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -1539,7 +1590,7 @@
         <v>113</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G28">
         <v>1840</v>
@@ -1564,6 +1615,9 @@
       <c r="E29" t="s">
         <v>113</v>
       </c>
+      <c r="F29">
+        <v>120</v>
+      </c>
       <c r="G29">
         <v>900</v>
       </c>
@@ -1587,6 +1641,9 @@
       <c r="E30" t="s">
         <v>113</v>
       </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
       <c r="G30">
         <v>240</v>
       </c>
@@ -1614,7 +1671,7 @@
         <v>113</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>3690</v>
@@ -1646,7 +1703,7 @@
         <v>113</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>13700</v>
@@ -1671,6 +1728,9 @@
       <c r="E33" t="s">
         <v>113</v>
       </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
       <c r="G33">
         <v>1440</v>
       </c>
@@ -1697,6 +1757,9 @@
       <c r="E34" t="s">
         <v>113</v>
       </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -1721,7 +1784,7 @@
         <v>113</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G35">
         <v>7310</v>
@@ -1750,7 +1813,7 @@
         <v>113</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>370</v>
@@ -1776,7 +1839,7 @@
         <v>113</v>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>600</v>
@@ -1802,7 +1865,7 @@
         <v>113</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="G38">
         <v>150</v>
@@ -1827,6 +1890,9 @@
       <c r="E39" t="s">
         <v>113</v>
       </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -1854,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="F40">
-        <v>265</v>
+        <v>1200</v>
       </c>
       <c r="G40">
         <v>5670</v>
@@ -1885,6 +1951,9 @@
       <c r="E41" t="s">
         <v>113</v>
       </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
       <c r="G41">
         <v>40</v>
       </c>
@@ -1909,7 +1978,7 @@
         <v>113</v>
       </c>
       <c r="F42">
-        <v>199</v>
+        <v>500</v>
       </c>
       <c r="G42">
         <v>6740</v>
@@ -1935,7 +2004,7 @@
         <v>113</v>
       </c>
       <c r="F43">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="G43">
         <v>260</v>
@@ -1961,7 +2030,7 @@
         <v>113</v>
       </c>
       <c r="F44">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G44">
         <v>2260</v>
@@ -1986,6 +2055,9 @@
       <c r="E45" t="s">
         <v>113</v>
       </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
       <c r="G45">
         <v>190</v>
       </c>
@@ -2009,8 +2081,11 @@
       <c r="E46" t="s">
         <v>113</v>
       </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
       <c r="G46">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I46">
         <v>47</v>
@@ -2036,7 +2111,7 @@
         <v>113</v>
       </c>
       <c r="F47">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="G47">
         <v>3330</v>
@@ -2062,7 +2137,7 @@
         <v>113</v>
       </c>
       <c r="F48">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G48">
         <v>13650</v>
@@ -2088,7 +2163,7 @@
         <v>113</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G49">
         <v>5770</v>
